--- a/New files/Community Health Network/Invoice - # 10223952 L&D CST NIGHTS.xlsx
+++ b/New files/Community Health Network/Invoice - # 10223952 L&D CST NIGHTS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127E125A-E30E-4E8E-AA4A-F4B64EBD8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{982E0A16-2636-4B2A-9C54-61F902D373C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{4231C3EC-A263-49A6-8064-A927F9E67637}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{05DF5A6A-29AA-44A1-9858-83EC274DADD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -557,20 +557,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>767715</xdr:colOff>
+      <xdr:colOff>769620</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA9CC3F-1A14-B276-5F68-5683954A41AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E27EC8C-3256-4D00-CC3F-23EF56AB1E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528016C-24CB-4E2A-9EBC-4E317057DBAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27066EF2-B934-44FE-A916-E65DFD5F7F5B}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -934,9 +934,9 @@
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1283,29 +1283,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C72BC0-3697-45D4-9A83-9D7AD9361A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12739C-F1EB-4A59-BCC5-6BEA651B10BF}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/New files/Community Health Network/Invoice - # 10223952 L&D CST NIGHTS.xlsx
+++ b/New files/Community Health Network/Invoice - # 10223952 L&D CST NIGHTS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982E0A16-2636-4B2A-9C54-61F902D373C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B409D832-7189-4525-AF70-D760E37A6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{05DF5A6A-29AA-44A1-9858-83EC274DADD1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90F3F778-94C8-4523-8855-89E7B14277BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -557,20 +557,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E27EC8C-3256-4D00-CC3F-23EF56AB1E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDF0A83-ECD7-8D79-C610-2719D28B259D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27066EF2-B934-44FE-A916-E65DFD5F7F5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717702E7-B4B2-41E8-A8FD-AE34F7344E81}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -929,14 +929,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1283,28 +1283,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12739C-F1EB-4A59-BCC5-6BEA651B10BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181DF796-B361-426B-A78F-944978E07B12}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
